--- a/Study Guide.xlsx
+++ b/Study Guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocks\Documents\GitHub\Mastering-SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879DD6B1-0F5A-4EEA-A983-BE7B6C6AF122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC7C2A4-4C72-49A4-A9B0-27941D4DF418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2DB50A52-9F02-405D-9204-69B3737D220B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2DB50A52-9F02-405D-9204-69B3737D220B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,12 +403,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -501,9 +507,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -512,18 +521,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E7432B-015F-4BB5-88E8-FD23DB15DCA5}">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I16"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -852,538 +859,538 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="4"/>
+      <c r="B44" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="4"/>
+      <c r="B51" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="4"/>
+      <c r="B53" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="4"/>
+      <c r="B55" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="4"/>
+      <c r="B56" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9" t="s">
+      <c r="A57" s="4"/>
+      <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9" t="s">
+      <c r="A60" s="4"/>
+      <c r="B60" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="4"/>
+      <c r="B61" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9" t="s">
+      <c r="A62" s="4"/>
+      <c r="B62" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="8"/>
-      <c r="B63" s="9" t="s">
+      <c r="A63" s="4"/>
+      <c r="B63" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9" t="s">
+      <c r="A64" s="4"/>
+      <c r="B64" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="8"/>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="4"/>
+      <c r="B65" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="8"/>
-      <c r="B66" s="9" t="s">
+      <c r="A66" s="4"/>
+      <c r="B66" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="8"/>
-      <c r="B67" s="9" t="s">
+      <c r="A67" s="4"/>
+      <c r="B67" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="4"/>
+      <c r="B68" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="8"/>
-      <c r="B69" s="9" t="s">
+      <c r="A69" s="4"/>
+      <c r="B69" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9" t="s">
+      <c r="A70" s="4"/>
+      <c r="B70" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="8"/>
-      <c r="B71" s="9" t="s">
+      <c r="A71" s="4"/>
+      <c r="B71" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="8"/>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="4"/>
+      <c r="B72" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="8"/>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="4"/>
+      <c r="B73" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="8"/>
-      <c r="B74" s="9" t="s">
+      <c r="A74" s="4"/>
+      <c r="B74" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="8"/>
-      <c r="B75" s="9" t="s">
+      <c r="A75" s="4"/>
+      <c r="B75" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="8"/>
-      <c r="B76" s="9" t="s">
+      <c r="A76" s="4"/>
+      <c r="B76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="8"/>
-      <c r="B77" s="9" t="s">
+      <c r="A77" s="4"/>
+      <c r="B77" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="4"/>
+      <c r="B78" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="8"/>
-      <c r="B79" s="9" t="s">
+      <c r="A79" s="4"/>
+      <c r="B79" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="8"/>
-      <c r="B80" s="9" t="s">
+      <c r="A80" s="4"/>
+      <c r="B80" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="8"/>
-      <c r="B81" s="9" t="s">
+      <c r="A81" s="4"/>
+      <c r="B81" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="8"/>
-      <c r="B82" s="9" t="s">
+      <c r="A82" s="4"/>
+      <c r="B82" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="8"/>
-      <c r="B83" s="9" t="s">
+      <c r="A83" s="4"/>
+      <c r="B83" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="8"/>
-      <c r="B84" s="9" t="s">
+      <c r="A84" s="4"/>
+      <c r="B84" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="8"/>
-      <c r="B85" s="9" t="s">
+      <c r="A85" s="4"/>
+      <c r="B85" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="8"/>
-      <c r="B86" s="9" t="s">
+      <c r="A86" s="4"/>
+      <c r="B86" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="8"/>
-      <c r="B87" s="9" t="s">
+      <c r="A87" s="4"/>
+      <c r="B87" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1407,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A331EAA4-D7F3-4CA5-AE9F-F944F0A89091}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/Study Guide.xlsx
+++ b/Study Guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocks\Documents\GitHub\Mastering-SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC7C2A4-4C72-49A4-A9B0-27941D4DF418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C767AE39-CF25-4F7E-B070-C47A4F44DE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2DB50A52-9F02-405D-9204-69B3737D220B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2DB50A52-9F02-405D-9204-69B3737D220B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Analytics Functions</t>
   </si>
@@ -380,6 +380,12 @@
   </si>
   <si>
     <t>Indexes</t>
+  </si>
+  <si>
+    <t>CAST</t>
+  </si>
+  <si>
+    <t>CONVERT</t>
   </si>
 </sst>
 </file>
@@ -512,6 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,7 +537,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,7 +853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E7432B-015F-4BB5-88E8-FD23DB15DCA5}">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
@@ -859,13 +865,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -873,49 +879,49 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -923,19 +929,19 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -943,25 +949,25 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -969,139 +975,139 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="4"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1109,85 +1115,85 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="4"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="4"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="4"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="4"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="4"/>
+      <c r="A46" s="5"/>
       <c r="B46" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="4"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="4"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="4"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="4"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="4"/>
+      <c r="A51" s="5"/>
       <c r="B51" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="4"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="4"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -1195,201 +1201,201 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="4"/>
+      <c r="A55" s="5"/>
       <c r="B55" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="4"/>
+      <c r="A56" s="5"/>
       <c r="B56" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="4"/>
+      <c r="A57" s="5"/>
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="4"/>
-      <c r="B59" s="10" t="s">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="4"/>
-      <c r="B60" s="10" t="s">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="4"/>
-      <c r="B61" s="10" t="s">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="4"/>
+      <c r="A62" s="5"/>
       <c r="B62" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="4"/>
+      <c r="A63" s="5"/>
       <c r="B63" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="4"/>
+      <c r="A64" s="5"/>
       <c r="B64" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="4"/>
+      <c r="A65" s="5"/>
       <c r="B65" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="4"/>
+      <c r="A66" s="5"/>
       <c r="B66" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="4"/>
+      <c r="A67" s="5"/>
       <c r="B67" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="4"/>
+      <c r="A68" s="5"/>
       <c r="B68" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="4"/>
+      <c r="A69" s="5"/>
       <c r="B69" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="4"/>
+      <c r="A70" s="5"/>
       <c r="B70" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="4"/>
+      <c r="A71" s="5"/>
       <c r="B71" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="4"/>
+      <c r="A72" s="5"/>
       <c r="B72" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="4"/>
+      <c r="A73" s="5"/>
       <c r="B73" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="4"/>
+      <c r="A74" s="5"/>
       <c r="B74" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="4"/>
+      <c r="A75" s="5"/>
       <c r="B75" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="4"/>
+      <c r="A76" s="5"/>
       <c r="B76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="4"/>
+      <c r="A77" s="5"/>
       <c r="B77" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="4"/>
+      <c r="A78" s="5"/>
       <c r="B78" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="4"/>
+      <c r="A79" s="5"/>
       <c r="B79" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="4"/>
+      <c r="A80" s="5"/>
       <c r="B80" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="4"/>
+      <c r="A81" s="5"/>
       <c r="B81" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="4"/>
+      <c r="A82" s="5"/>
       <c r="B82" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="4"/>
+      <c r="A83" s="5"/>
       <c r="B83" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="4"/>
+      <c r="A84" s="5"/>
       <c r="B84" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="4"/>
+      <c r="A85" s="5"/>
       <c r="B85" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="4"/>
+      <c r="A86" s="5"/>
       <c r="B86" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="4"/>
+      <c r="A87" s="5"/>
       <c r="B87" s="3" t="s">
         <v>109</v>
       </c>
@@ -1412,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A331EAA4-D7F3-4CA5-AE9F-F944F0A89091}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1543,6 +1549,16 @@
         <v>117</v>
       </c>
     </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Study Guide.xlsx
+++ b/Study Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocks\Documents\GitHub\Mastering-SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C767AE39-CF25-4F7E-B070-C47A4F44DE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA21D70-82EC-429A-885B-B7565D802A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2DB50A52-9F02-405D-9204-69B3737D220B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Analytics Functions</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>CONVERT</t>
+  </si>
+  <si>
+    <t>Difference between varchar and nvarchar in SQL Server</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1421,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A331EAA4-D7F3-4CA5-AE9F-F944F0A89091}">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
@@ -1559,6 +1562,11 @@
         <v>119</v>
       </c>
     </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Study Guide.xlsx
+++ b/Study Guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocks\Documents\GitHub\Mastering-SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA21D70-82EC-429A-885B-B7565D802A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9E4DE3-58F8-440F-B9AB-0757BA8873D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2DB50A52-9F02-405D-9204-69B3737D220B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2DB50A52-9F02-405D-9204-69B3737D220B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +422,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -540,6 +546,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E7432B-015F-4BB5-88E8-FD23DB15DCA5}">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1249,43 +1256,43 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="5"/>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="5"/>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="5"/>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1297,7 +1304,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="5"/>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1423,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A331EAA4-D7F3-4CA5-AE9F-F944F0A89091}">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>

--- a/Study Guide.xlsx
+++ b/Study Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocks\Documents\GitHub\Mastering-SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9E4DE3-58F8-440F-B9AB-0757BA8873D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C0E116-C3BA-46F4-85AE-E91B626D6B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2DB50A52-9F02-405D-9204-69B3737D220B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Analytics Functions</t>
   </si>
@@ -389,6 +389,12 @@
   </si>
   <si>
     <t>Difference between varchar and nvarchar in SQL Server</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Added a simple example, can add more examples if required</t>
   </si>
 </sst>
 </file>
@@ -412,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,14 +431,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -518,11 +518,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -546,7 +561,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,26 +877,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E7432B-015F-4BB5-88E8-FD23DB15DCA5}">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -888,49 +908,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -938,19 +958,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -958,19 +978,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>18</v>
@@ -1172,37 +1192,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
       <c r="B50" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
       <c r="B51" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>66</v>
       </c>
@@ -1210,25 +1230,25 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
       <c r="B56" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="5"/>
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>74</v>
       </c>
@@ -1236,133 +1256,137 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
       <c r="B59" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="5"/>
       <c r="B60" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="5"/>
       <c r="B61" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D64" s="12"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="5"/>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="5"/>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="5"/>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
       <c r="B69" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="5"/>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="5"/>
       <c r="B72" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="5"/>
       <c r="B73" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="5"/>
       <c r="B74" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="5"/>
       <c r="B75" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="5"/>
       <c r="B76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="5"/>
       <c r="B77" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="5"/>
       <c r="B78" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="5"/>
       <c r="B79" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="5"/>
       <c r="B80" s="3" t="s">
         <v>102</v>

--- a/Study Guide.xlsx
+++ b/Study Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocks\Documents\GitHub\Mastering-SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C0E116-C3BA-46F4-85AE-E91B626D6B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7792385-0D45-41FA-BDF3-0671CD248AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2DB50A52-9F02-405D-9204-69B3737D220B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Analytics Functions</t>
   </si>
@@ -395,6 +395,15 @@
   </si>
   <si>
     <t>Added a simple example, can add more examples if required</t>
+  </si>
+  <si>
+    <t>STRING_SPLIT function</t>
+  </si>
+  <si>
+    <t>About variables</t>
+  </si>
+  <si>
+    <t>CTE and Recursive CTE</t>
   </si>
 </sst>
 </file>
@@ -543,6 +552,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,8 +572,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E7432B-015F-4BB5-88E8-FD23DB15DCA5}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -892,16 +901,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -909,49 +918,49 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -959,19 +968,19 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -979,25 +988,25 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1005,139 +1014,139 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1145,85 +1154,85 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="5"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="5"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="5"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -1231,25 +1240,25 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="5"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="5"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="5"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -1257,74 +1266,77 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="5"/>
+      <c r="A59" s="7"/>
       <c r="B59" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="5"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="5"/>
+      <c r="A61" s="7"/>
       <c r="B61" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="5"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="5"/>
+      <c r="A63" s="7"/>
       <c r="B63" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="5"/>
+      <c r="A64" s="7"/>
       <c r="B64" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D64" s="12"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="5"/>
+      <c r="D64" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="7"/>
       <c r="B65" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="5"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="7"/>
       <c r="B66" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="5"/>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="7"/>
       <c r="B67" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="5"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="7"/>
       <c r="B68" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="5"/>
-      <c r="B69" s="3" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="7"/>
+      <c r="B69" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="5"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="7"/>
       <c r="B70" s="4" t="s">
         <v>92</v>
       </c>
@@ -1332,104 +1344,104 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="5"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="7"/>
       <c r="B71" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="5"/>
-      <c r="B72" s="3" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="7"/>
+      <c r="B72" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="5"/>
-      <c r="B73" s="3" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="7"/>
+      <c r="B73" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="5"/>
-      <c r="B74" s="3" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="7"/>
+      <c r="B74" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="5"/>
-      <c r="B75" s="3" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="7"/>
+      <c r="B75" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="5"/>
-      <c r="B76" s="3" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="7"/>
+      <c r="B76" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="5"/>
-      <c r="B77" s="3" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="7"/>
+      <c r="B77" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="5"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="7"/>
       <c r="B78" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="5"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="7"/>
       <c r="B79" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="5"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="7"/>
       <c r="B80" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="5"/>
+      <c r="A81" s="7"/>
       <c r="B81" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="5"/>
+      <c r="A82" s="7"/>
       <c r="B82" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="5"/>
+      <c r="A83" s="7"/>
       <c r="B83" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="5"/>
+      <c r="A84" s="7"/>
       <c r="B84" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="5"/>
+      <c r="A85" s="7"/>
       <c r="B85" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="5"/>
+      <c r="A86" s="7"/>
       <c r="B86" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="5"/>
+      <c r="A87" s="7"/>
       <c r="B87" s="3" t="s">
         <v>109</v>
       </c>
@@ -1452,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A331EAA4-D7F3-4CA5-AE9F-F944F0A89091}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1598,6 +1610,21 @@
         <v>120</v>
       </c>
     </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
